--- a/data/schools_with_locations.xlsx
+++ b/data/schools_with_locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucy\Documents\DA15\cassidy_capstone\nashville_schools_vs_resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4604FDBC-6D48-41F9-8B15-196CB8DB8925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511510B9-A9CD-47FA-8D57-26F5388FEC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="2115" windowWidth="36810" windowHeight="16140" xr2:uid="{C8DD1183-0BE8-41A4-849C-1204888075CB}"/>
   </bookViews>
